--- a/evaluation/gdpa_big-vector-adamrandom.xlsx
+++ b/evaluation/gdpa_big-vector-adamrandom.xlsx
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
